--- a/REGULAR/CTO/BAYOT ANABEL D..xlsx
+++ b/REGULAR/CTO/BAYOT ANABEL D..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1321,6 +1321,15 @@
   </si>
   <si>
     <t>7/20-22,26,27/2022</t>
+  </si>
+  <si>
+    <t>5/20,23,27,30,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
+  </si>
+  <si>
+    <t>UT(0-1-31)</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2042,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K554" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K558" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2362,12 +2371,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K554"/>
+  <dimension ref="A2:K558"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A518" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="F536" sqref="F536"/>
+      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2541,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.081000000000074</v>
+        <v>61.810000000000059</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14051,64 +14060,58 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="39">
-        <v>44682</v>
-      </c>
+      <c r="A524" s="39"/>
       <c r="B524" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C524" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D524" s="38"/>
+        <v>422</v>
+      </c>
+      <c r="C524" s="13"/>
+      <c r="D524" s="38">
+        <v>1</v>
+      </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H524" s="38"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
+      <c r="K524" s="48">
+        <v>45036</v>
+      </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="39">
-        <v>44713</v>
-      </c>
+      <c r="A525" s="39"/>
       <c r="B525" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C525" s="13">
-        <v>1.25</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C525" s="13"/>
       <c r="D525" s="38">
-        <v>7.3000000000000009E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H525" s="38"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="48"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="C526" s="13">
         <v>1.25</v>
       </c>
-      <c r="D526" s="38">
-        <v>5</v>
-      </c>
+      <c r="D526" s="38"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
       <c r="G526" s="13">
@@ -14118,18 +14121,16 @@
       <c r="H526" s="38"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20" t="s">
-        <v>425</v>
-      </c>
+      <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="20" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="38">
-        <v>8.0000000000000002E-3</v>
+        <v>5</v>
       </c>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
@@ -14140,118 +14141,116 @@
       <c r="H527" s="38"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
+      <c r="K527" s="20" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="39">
-        <v>44774</v>
-      </c>
+      <c r="A528" s="39"/>
       <c r="B528" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C528" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D528" s="38"/>
+        <v>427</v>
+      </c>
+      <c r="C528" s="13"/>
+      <c r="D528" s="38">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H528" s="38">
-        <v>4</v>
-      </c>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="38"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="39">
-        <v>44805</v>
+        <v>44713</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C529" s="13">
         <v>1.25</v>
       </c>
-      <c r="D529" s="38"/>
+      <c r="D529" s="38">
+        <v>7.3000000000000009E-2</v>
+      </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
       <c r="G529" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H529" s="38">
-        <v>3</v>
-      </c>
+      <c r="H529" s="38"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K529" s="20"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="39"/>
+      <c r="A530" s="39">
+        <v>44743</v>
+      </c>
       <c r="B530" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C530" s="13"/>
+        <v>424</v>
+      </c>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="38">
-        <v>2.5000000000000008E-2</v>
+        <v>5</v>
       </c>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H530" s="38"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="20"/>
+      <c r="K530" s="20" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="39">
-        <v>44835</v>
-      </c>
+      <c r="A531" s="39"/>
       <c r="B531" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C531" s="13">
-        <v>1.25</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C531" s="13"/>
       <c r="D531" s="38">
-        <v>2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H531" s="38"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K531" s="20"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="39"/>
+      <c r="A532" s="39">
+        <v>44774</v>
+      </c>
       <c r="B532" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C532" s="13"/>
+      <c r="C532" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D532" s="38"/>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G532" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H532" s="38">
         <v>4</v>
@@ -14259,39 +14258,43 @@
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
       <c r="K532" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="39"/>
+      <c r="A533" s="39">
+        <v>44805</v>
+      </c>
       <c r="B533" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="C533" s="13"/>
-      <c r="D533" s="38">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C533" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D533" s="38"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H533" s="38"/>
+      <c r="G533" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H533" s="38">
+        <v>3</v>
+      </c>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
-      <c r="K533" s="48">
-        <v>44847</v>
+      <c r="K533" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39"/>
       <c r="B534" s="20" t="s">
-        <v>423</v>
+        <v>151</v>
       </c>
       <c r="C534" s="13"/>
       <c r="D534" s="38">
-        <v>0.14400000000000002</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
@@ -14302,20 +14305,20 @@
       <c r="H534" s="38"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="48"/>
+      <c r="K534" s="20"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C535" s="13">
         <v>1.25</v>
       </c>
       <c r="D535" s="38">
-        <v>3.1000000000000014E-2</v>
+        <v>2</v>
       </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
@@ -14326,32 +14329,30 @@
       <c r="H535" s="38"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
+      <c r="K535" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="39">
-        <v>44896</v>
-      </c>
+      <c r="A536" s="39"/>
       <c r="B536" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C536" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D536" s="38">
-        <v>4</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C536" s="13"/>
+      <c r="D536" s="38"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H536" s="38"/>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="38">
+        <v>4</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
@@ -14373,17 +14374,17 @@
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
       <c r="K537" s="48">
-        <v>44909</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39"/>
       <c r="B538" s="20" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="C538" s="13"/>
       <c r="D538" s="38">
-        <v>0.12100000000000001</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
@@ -14394,20 +14395,26 @@
       <c r="H538" s="38"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="48"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
-      <c r="D539" s="38"/>
+      <c r="A539" s="39">
+        <v>44866</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D539" s="38">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H539" s="38"/>
       <c r="I539" s="9"/>
@@ -14416,13 +14423,17 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39">
-        <v>44927</v>
-      </c>
-      <c r="B540" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B540" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="C540" s="13">
         <v>1.25</v>
       </c>
-      <c r="D540" s="38"/>
+      <c r="D540" s="38">
+        <v>4</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
       <c r="G540" s="13">
@@ -14432,42 +14443,40 @@
       <c r="H540" s="38"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A541" s="39"/>
       <c r="B541" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C541" s="13">
-        <v>1.25</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C541" s="13"/>
       <c r="D541" s="38">
         <v>1</v>
       </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H541" s="38"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
       <c r="K541" s="48">
-        <v>44970</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39"/>
       <c r="B542" s="20" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="38">
-        <v>3</v>
+        <v>0.12100000000000001</v>
       </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
@@ -14478,24 +14487,20 @@
       <c r="H542" s="38"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="39">
-        <v>44986</v>
+      <c r="A543" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="B543" s="20"/>
-      <c r="C543" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C543" s="13"/>
       <c r="D543" s="38"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H543" s="38"/>
       <c r="I543" s="9"/>
@@ -14504,17 +14509,13 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39">
-        <v>45017</v>
-      </c>
-      <c r="B544" s="20" t="s">
-        <v>132</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B544" s="20"/>
       <c r="C544" s="13">
         <v>1.25</v>
       </c>
-      <c r="D544" s="38">
-        <v>5</v>
-      </c>
+      <c r="D544" s="38"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="13">
@@ -14524,44 +14525,42 @@
       <c r="H544" s="38"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="K544" s="20"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39">
-        <v>45047</v>
+        <v>44958</v>
       </c>
       <c r="B545" s="20" t="s">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="C545" s="13">
         <v>1.25</v>
       </c>
-      <c r="D545" s="38"/>
+      <c r="D545" s="38">
+        <v>1</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
       <c r="G545" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H545" s="38">
-        <v>9</v>
-      </c>
+      <c r="H545" s="38"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="20" t="s">
-        <v>420</v>
+      <c r="K545" s="48">
+        <v>44970</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39"/>
       <c r="B546" s="20" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="C546" s="13"/>
       <c r="D546" s="38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
@@ -14572,22 +14571,24 @@
       <c r="H546" s="38"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20" t="s">
-        <v>421</v>
+      <c r="K546" s="48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="B547" s="20"/>
-      <c r="C547" s="13"/>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D547" s="38"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="38"/>
       <c r="I547" s="9"/>
@@ -14596,47 +14597,65 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B548" s="20"/>
-      <c r="C548" s="13"/>
-      <c r="D548" s="38"/>
+        <v>45017</v>
+      </c>
+      <c r="B548" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C548" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D548" s="38">
+        <v>5</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G548" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H548" s="38"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B549" s="20"/>
-      <c r="C549" s="13"/>
+        <v>45047</v>
+      </c>
+      <c r="B549" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D549" s="38"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H549" s="38"/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H549" s="38">
+        <v>9</v>
+      </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="20" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B550" s="20"/>
+      <c r="A550" s="39"/>
+      <c r="B550" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="C550" s="13"/>
-      <c r="D550" s="38"/>
+      <c r="D550" s="38">
+        <v>8</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="13" t="str">
@@ -14646,11 +14665,13 @@
       <c r="H550" s="38"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="20" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14668,7 +14689,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14686,7 +14707,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39">
-        <v>45261</v>
+        <v>45139</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14703,20 +14724,92 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
-      <c r="B554" s="15"/>
-      <c r="C554" s="41"/>
-      <c r="D554" s="42"/>
+      <c r="A554" s="39">
+        <v>45170</v>
+      </c>
+      <c r="B554" s="20"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="38"/>
       <c r="E554" s="9"/>
-      <c r="F554" s="15"/>
-      <c r="G554" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H554" s="42"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="38"/>
       <c r="I554" s="9"/>
-      <c r="J554" s="12"/>
-      <c r="K554" s="15"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B555" s="20"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="38"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="20"/>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H555" s="38"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="11"/>
+      <c r="K555" s="20"/>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B556" s="20"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="38"/>
+      <c r="E556" s="9"/>
+      <c r="F556" s="20"/>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H556" s="38"/>
+      <c r="I556" s="9"/>
+      <c r="J556" s="11"/>
+      <c r="K556" s="20"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="38"/>
+      <c r="E557" s="9"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="38"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="40"/>
+      <c r="B558" s="15"/>
+      <c r="C558" s="41"/>
+      <c r="D558" s="42"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="15"/>
+      <c r="G558" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="42"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="12"/>
+      <c r="K558" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14829,14 +14922,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.3000000000000009E-2</v>
+        <v>0.19</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/CTO/BAYOT ANABEL D..xlsx
+++ b/REGULAR/CTO/BAYOT ANABEL D..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="431">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1330,6 +1330,12 @@
   </si>
   <si>
     <t>UT(0-1-31)</t>
+  </si>
+  <si>
+    <t>UT(0-1-40)</t>
+  </si>
+  <si>
+    <t>8/29- 9/1/2023</t>
   </si>
 </sst>
 </file>
@@ -2374,9 +2380,9 @@
   <dimension ref="A2:K558"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A518" activePane="bottomLeft"/>
+      <pane ySplit="1800" topLeftCell="A533" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
+      <selection pane="bottomLeft" activeCell="G558" sqref="G558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2547,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.810000000000059</v>
+        <v>60.102000000000032</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2551,7 +2557,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.725000000000023</v>
+        <v>36.225000000000023</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14017,11 +14023,15 @@
       <c r="A522" s="39">
         <v>44621</v>
       </c>
-      <c r="B522" s="20"/>
+      <c r="B522" s="20" t="s">
+        <v>429</v>
+      </c>
       <c r="C522" s="13">
         <v>1.25</v>
       </c>
-      <c r="D522" s="38"/>
+      <c r="D522" s="38">
+        <v>0.20800000000000002</v>
+      </c>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
       <c r="G522" s="13">
@@ -14674,13 +14684,15 @@
         <v>45078</v>
       </c>
       <c r="B551" s="20"/>
-      <c r="C551" s="13"/>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D551" s="38"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G551" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H551" s="38"/>
       <c r="I551" s="9"/>
@@ -14692,13 +14704,15 @@
         <v>45108</v>
       </c>
       <c r="B552" s="20"/>
-      <c r="C552" s="13"/>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D552" s="38"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H552" s="38"/>
       <c r="I552" s="9"/>
@@ -14709,9 +14723,13 @@
       <c r="A553" s="39">
         <v>45139</v>
       </c>
-      <c r="B553" s="20"/>
+      <c r="B553" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="C553" s="13"/>
-      <c r="D553" s="38"/>
+      <c r="D553" s="38">
+        <v>4</v>
+      </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
       <c r="G553" s="13" t="str">
@@ -14721,7 +14739,9 @@
       <c r="H553" s="38"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20"/>
+      <c r="K553" s="20" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39">
@@ -14925,11 +14945,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.19</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/CTO/BAYOT ANABEL D..xlsx
+++ b/REGULAR/CTO/BAYOT ANABEL D..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="440">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1342,6 +1342,27 @@
   </si>
   <si>
     <t>12/21,22,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/15,19,20/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-11)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/23,25/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2075,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K558" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2383,12 +2404,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K558"/>
+  <dimension ref="A2:K638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A533" activePane="bottomLeft"/>
-      <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="F556" sqref="F556"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A547" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E560" sqref="E560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2574,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.102000000000032</v>
+        <v>55.219000000000051</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2563,7 +2584,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.225000000000023</v>
+        <v>42.475000000000023</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14709,11 +14730,15 @@
       <c r="A552" s="39">
         <v>45108</v>
       </c>
-      <c r="B552" s="20"/>
+      <c r="B552" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="C552" s="13">
         <v>1.25</v>
       </c>
-      <c r="D552" s="38"/>
+      <c r="D552" s="38">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
       <c r="G552" s="13">
@@ -14752,62 +14777,60 @@
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B554" s="20"/>
-      <c r="C554" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D554" s="38"/>
+      <c r="A554" s="39"/>
+      <c r="B554" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C554" s="13"/>
+      <c r="D554" s="38">
+        <v>2</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H554" s="38"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
+      <c r="K554" s="20" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="39">
-        <v>45200</v>
-      </c>
+      <c r="A555" s="39"/>
       <c r="B555" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C555" s="13">
-        <v>1.25</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C555" s="13"/>
       <c r="D555" s="38">
-        <v>4</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H555" s="38"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20" t="s">
-        <v>431</v>
-      </c>
+      <c r="K555" s="20"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B556" s="20" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C556" s="13">
         <v>1.25</v>
       </c>
-      <c r="D556" s="38"/>
+      <c r="D556" s="38">
+        <v>1</v>
+      </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
       <c r="G556" s="13">
@@ -14817,17 +14840,19 @@
       <c r="H556" s="38"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20" t="s">
-        <v>432</v>
+      <c r="K556" s="48">
+        <v>45182</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B557" s="20"/>
+      <c r="A557" s="39"/>
+      <c r="B557" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="C557" s="13"/>
-      <c r="D557" s="38"/>
+      <c r="D557" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
       <c r="G557" s="13" t="str">
@@ -14837,23 +14862,1151 @@
       <c r="H557" s="38"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="20"/>
+      <c r="K557" s="48"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40"/>
-      <c r="B558" s="15"/>
-      <c r="C558" s="41"/>
-      <c r="D558" s="42"/>
+      <c r="A558" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B558" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D558" s="38">
+        <v>4</v>
+      </c>
       <c r="E558" s="9"/>
-      <c r="F558" s="15"/>
-      <c r="G558" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H558" s="42"/>
+      <c r="F558" s="20"/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H558" s="38"/>
       <c r="I558" s="9"/>
-      <c r="J558" s="12"/>
-      <c r="K558" s="15"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B559" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D559" s="38"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="20"/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H559" s="38"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="39"/>
+      <c r="B560" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C560" s="13"/>
+      <c r="D560" s="38">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="38"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B561" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D561" s="38">
+        <v>3</v>
+      </c>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H561" s="38"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="39"/>
+      <c r="B562" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C562" s="13"/>
+      <c r="D562" s="38">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="38"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="38"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H563" s="38"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="39">
+        <v>45292</v>
+      </c>
+      <c r="B564" s="15"/>
+      <c r="C564" s="41"/>
+      <c r="D564" s="42"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="15"/>
+      <c r="G564" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="42"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="12"/>
+      <c r="K564" s="15"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="39">
+        <v>45323</v>
+      </c>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="38"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H565" s="38"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" s="39">
+        <v>45352</v>
+      </c>
+      <c r="B566" s="20"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="38"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="20"/>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="38"/>
+      <c r="I566" s="9"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="20"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" s="39">
+        <v>45383</v>
+      </c>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="38"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="38"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="39">
+        <v>45413</v>
+      </c>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="38"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="38"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="39">
+        <v>45444</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="38"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="38"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="39">
+        <v>45474</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="38"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="38"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="39"/>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="38"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13"/>
+      <c r="H571" s="38"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="39"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="38"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13"/>
+      <c r="H572" s="38"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="39"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="38"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13"/>
+      <c r="H573" s="38"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="39"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="38"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13"/>
+      <c r="H574" s="38"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="39"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="38"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13"/>
+      <c r="H575" s="38"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="39"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="38"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13"/>
+      <c r="H576" s="38"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="39"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="38"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13"/>
+      <c r="H577" s="38"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="39"/>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="38"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13"/>
+      <c r="H578" s="38"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="39"/>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="38"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13"/>
+      <c r="H579" s="38"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="39"/>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="38"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13"/>
+      <c r="H580" s="38"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="39"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="38"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13"/>
+      <c r="H581" s="38"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="39"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="38"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13"/>
+      <c r="H582" s="38"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="39"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="38"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13"/>
+      <c r="H583" s="38"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="39"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="38"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13"/>
+      <c r="H584" s="38"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="39"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="38"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13"/>
+      <c r="H585" s="38"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="39"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="38"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13"/>
+      <c r="H586" s="38"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="39"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="38"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13"/>
+      <c r="H587" s="38"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="39"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="38"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13"/>
+      <c r="H588" s="38"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="39"/>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="38"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13"/>
+      <c r="H589" s="38"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="39"/>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="38"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13"/>
+      <c r="H590" s="38"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="39"/>
+      <c r="B591" s="20"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="38"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="13"/>
+      <c r="H591" s="38"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="20"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="39"/>
+      <c r="B592" s="20"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="38"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="20"/>
+      <c r="G592" s="13"/>
+      <c r="H592" s="38"/>
+      <c r="I592" s="9"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="20"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" s="39"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="38"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13"/>
+      <c r="H593" s="38"/>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="39"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="38"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13"/>
+      <c r="H594" s="38"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="39"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="38"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13"/>
+      <c r="H595" s="38"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="39"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="38"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="13"/>
+      <c r="H596" s="38"/>
+      <c r="I596" s="9"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="39"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="38"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="13"/>
+      <c r="H597" s="38"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="39"/>
+      <c r="B598" s="20"/>
+      <c r="C598" s="13"/>
+      <c r="D598" s="38"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="20"/>
+      <c r="G598" s="13"/>
+      <c r="H598" s="38"/>
+      <c r="I598" s="9"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="20"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" s="39"/>
+      <c r="B599" s="20"/>
+      <c r="C599" s="13"/>
+      <c r="D599" s="38"/>
+      <c r="E599" s="9"/>
+      <c r="F599" s="20"/>
+      <c r="G599" s="13"/>
+      <c r="H599" s="38"/>
+      <c r="I599" s="9"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="20"/>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" s="39"/>
+      <c r="B600" s="20"/>
+      <c r="C600" s="13"/>
+      <c r="D600" s="38"/>
+      <c r="E600" s="9"/>
+      <c r="F600" s="20"/>
+      <c r="G600" s="13"/>
+      <c r="H600" s="38"/>
+      <c r="I600" s="9"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="20"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="39"/>
+      <c r="B601" s="20"/>
+      <c r="C601" s="13"/>
+      <c r="D601" s="38"/>
+      <c r="E601" s="9"/>
+      <c r="F601" s="20"/>
+      <c r="G601" s="13"/>
+      <c r="H601" s="38"/>
+      <c r="I601" s="9"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" s="39"/>
+      <c r="B602" s="20"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="38"/>
+      <c r="E602" s="9"/>
+      <c r="F602" s="20"/>
+      <c r="G602" s="13"/>
+      <c r="H602" s="38"/>
+      <c r="I602" s="9"/>
+      <c r="J602" s="11"/>
+      <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="39"/>
+      <c r="B603" s="20"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="38"/>
+      <c r="E603" s="9"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="13"/>
+      <c r="H603" s="38"/>
+      <c r="I603" s="9"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="20"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="39"/>
+      <c r="B604" s="20"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="38"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="20"/>
+      <c r="G604" s="13"/>
+      <c r="H604" s="38"/>
+      <c r="I604" s="9"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="20"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="39"/>
+      <c r="B605" s="20"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="38"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="20"/>
+      <c r="G605" s="13"/>
+      <c r="H605" s="38"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="20"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="39"/>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="38"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13"/>
+      <c r="H606" s="38"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="39"/>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="38"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13"/>
+      <c r="H607" s="38"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="39"/>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="38"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13"/>
+      <c r="H608" s="38"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="39"/>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="38"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13"/>
+      <c r="H609" s="38"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="39"/>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="38"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13"/>
+      <c r="H610" s="38"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="39"/>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="38"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13"/>
+      <c r="H611" s="38"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="39"/>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="38"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13"/>
+      <c r="H612" s="38"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="39"/>
+      <c r="B613" s="20"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="38"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="13"/>
+      <c r="H613" s="38"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="39"/>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="38"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13"/>
+      <c r="H614" s="38"/>
+      <c r="I614" s="9"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="39"/>
+      <c r="B615" s="20"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="38"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="20"/>
+      <c r="G615" s="13"/>
+      <c r="H615" s="38"/>
+      <c r="I615" s="9"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="20"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" s="39"/>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="38"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13"/>
+      <c r="H616" s="38"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="39"/>
+      <c r="B617" s="20"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="38"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="20"/>
+      <c r="G617" s="13"/>
+      <c r="H617" s="38"/>
+      <c r="I617" s="9"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" s="39"/>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="38"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13"/>
+      <c r="H618" s="38"/>
+      <c r="I618" s="9"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="39"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="38"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13"/>
+      <c r="H619" s="38"/>
+      <c r="I619" s="9"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="39"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="38"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13"/>
+      <c r="H620" s="38"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="39"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="38"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13"/>
+      <c r="H621" s="38"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="39"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="38"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13"/>
+      <c r="H622" s="38"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="39"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="38"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13"/>
+      <c r="H623" s="38"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="39"/>
+      <c r="B624" s="20"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="38"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="20"/>
+      <c r="G624" s="13"/>
+      <c r="H624" s="38"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="39"/>
+      <c r="B625" s="20"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="38"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="20"/>
+      <c r="G625" s="13"/>
+      <c r="H625" s="38"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="20"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="39"/>
+      <c r="B626" s="20"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="38"/>
+      <c r="E626" s="9"/>
+      <c r="F626" s="20"/>
+      <c r="G626" s="13"/>
+      <c r="H626" s="38"/>
+      <c r="I626" s="9"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="20"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="39"/>
+      <c r="B627" s="20"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="38"/>
+      <c r="E627" s="9"/>
+      <c r="F627" s="20"/>
+      <c r="G627" s="13"/>
+      <c r="H627" s="38"/>
+      <c r="I627" s="9"/>
+      <c r="J627" s="11"/>
+      <c r="K627" s="20"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" s="39"/>
+      <c r="B628" s="20"/>
+      <c r="C628" s="13"/>
+      <c r="D628" s="38"/>
+      <c r="E628" s="9"/>
+      <c r="F628" s="20"/>
+      <c r="G628" s="13"/>
+      <c r="H628" s="38"/>
+      <c r="I628" s="9"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="20"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="39"/>
+      <c r="B629" s="20"/>
+      <c r="C629" s="13"/>
+      <c r="D629" s="38"/>
+      <c r="E629" s="9"/>
+      <c r="F629" s="20"/>
+      <c r="G629" s="13"/>
+      <c r="H629" s="38"/>
+      <c r="I629" s="9"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="20"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" s="39"/>
+      <c r="B630" s="20"/>
+      <c r="C630" s="13"/>
+      <c r="D630" s="38"/>
+      <c r="E630" s="9"/>
+      <c r="F630" s="20"/>
+      <c r="G630" s="13"/>
+      <c r="H630" s="38"/>
+      <c r="I630" s="9"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="20"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" s="39"/>
+      <c r="B631" s="20"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="38"/>
+      <c r="E631" s="9"/>
+      <c r="F631" s="20"/>
+      <c r="G631" s="13"/>
+      <c r="H631" s="38"/>
+      <c r="I631" s="9"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="20"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="39"/>
+      <c r="B632" s="20"/>
+      <c r="C632" s="13"/>
+      <c r="D632" s="38"/>
+      <c r="E632" s="9"/>
+      <c r="F632" s="20"/>
+      <c r="G632" s="13"/>
+      <c r="H632" s="38"/>
+      <c r="I632" s="9"/>
+      <c r="J632" s="11"/>
+      <c r="K632" s="20"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" s="39"/>
+      <c r="B633" s="20"/>
+      <c r="C633" s="13"/>
+      <c r="D633" s="38"/>
+      <c r="E633" s="9"/>
+      <c r="F633" s="20"/>
+      <c r="G633" s="13"/>
+      <c r="H633" s="38"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="20"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="39"/>
+      <c r="B634" s="20"/>
+      <c r="C634" s="13"/>
+      <c r="D634" s="38"/>
+      <c r="E634" s="9"/>
+      <c r="F634" s="20"/>
+      <c r="G634" s="13"/>
+      <c r="H634" s="38"/>
+      <c r="I634" s="9"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="20"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="39"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="38"/>
+      <c r="E635" s="9"/>
+      <c r="F635" s="20"/>
+      <c r="G635" s="13"/>
+      <c r="H635" s="38"/>
+      <c r="I635" s="9"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="20"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="39"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="38"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="13"/>
+      <c r="H636" s="38"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="39"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="38"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13"/>
+      <c r="H637" s="38"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="39"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="38"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="20"/>
+      <c r="G638" s="13"/>
+      <c r="H638" s="38"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14965,15 +16118,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.20800000000000002</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/CTO/BAYOT ANABEL D..xlsx
+++ b/REGULAR/CTO/BAYOT ANABEL D..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="443">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,9 +297,6 @@
     <t>2/15-17/2023</t>
   </si>
   <si>
-    <t>4/10-14/2023</t>
-  </si>
-  <si>
     <t>Nov.16-30/1996   ROTATION</t>
   </si>
   <si>
@@ -1305,9 +1302,6 @@
     <t>SL(9-0-0)</t>
   </si>
   <si>
-    <t>4/24-28, 5/2-5/2023</t>
-  </si>
-  <si>
     <t>5/17-26/2023</t>
   </si>
   <si>
@@ -1363,6 +1357,21 @@
   </si>
   <si>
     <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>4/24-27, 5/2-5/2023</t>
+  </si>
+  <si>
+    <t>4/10-14/2023 (11-14, 20)</t>
+  </si>
+  <si>
+    <t>3/24,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2084,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K642" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2404,12 +2413,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K638"/>
+  <dimension ref="A2:K642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A547" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A538" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="E560" sqref="E560"/>
+      <selection pane="bottomLeft" activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +2583,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.219000000000051</v>
+        <v>51.127000000000066</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2584,7 +2593,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.475000000000023</v>
+        <v>43.475000000000023</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2592,7 +2601,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="38"/>
@@ -2606,7 +2615,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="13">
@@ -2623,7 +2632,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -2681,7 +2690,7 @@
         <v>35125</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -2767,7 +2776,7 @@
         <v>35247</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -2789,7 +2798,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="38"/>
@@ -2802,12 +2811,12 @@
       <c r="I20" s="13"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -2828,7 +2837,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="B22" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="38"/>
@@ -2848,7 +2857,7 @@
         <v>35400</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="51">
         <v>1.25</v>
@@ -2869,7 +2878,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="51"/>
@@ -2916,7 +2925,7 @@
         <v>35462</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="51">
         <v>1.25</v>
@@ -2936,7 +2945,7 @@
         <v>40.567</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2986,7 +2995,7 @@
         <v>35551</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="51">
         <v>1.25</v>
@@ -3006,7 +3015,7 @@
         <v>59.067</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3114,7 +3123,7 @@
         <v>35735</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="51">
         <v>1.25</v>
@@ -3132,7 +3141,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,7 +3149,7 @@
         <v>35765</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="51">
         <v>1.25</v>
@@ -3162,7 +3171,7 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="38">
@@ -3178,7 +3187,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="51"/>
@@ -3203,7 +3212,7 @@
         <v>35796</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="51">
         <v>1.25</v>
@@ -3227,7 +3236,7 @@
         <v>35827</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="51">
         <v>1.25</v>
@@ -3251,7 +3260,7 @@
         <v>35855</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="51">
         <v>1.25</v>
@@ -3275,7 +3284,7 @@
         <v>35886</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="51">
         <v>1.25</v>
@@ -3299,7 +3308,7 @@
         <v>35916</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="51">
         <v>1.25</v>
@@ -3323,7 +3332,7 @@
         <v>35947</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="51">
         <v>1.25</v>
@@ -3347,7 +3356,7 @@
         <v>35977</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="51">
         <v>1.25</v>
@@ -3371,7 +3380,7 @@
         <v>36008</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="51">
         <v>1.25</v>
@@ -3389,13 +3398,13 @@
       <c r="I46" s="13"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="38">
@@ -3414,7 +3423,7 @@
         <v>36039</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="51">
         <v>1.25</v>
@@ -3432,7 +3441,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3440,7 +3449,7 @@
         <v>36069</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="51">
         <v>1.25</v>
@@ -3458,13 +3467,13 @@
       <c r="I49" s="13"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="38">
@@ -3483,7 +3492,7 @@
         <v>36100</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="51">
         <v>1.25</v>
@@ -3501,13 +3510,13 @@
       <c r="I51" s="13"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="38">
@@ -3547,13 +3556,13 @@
       <c r="I53" s="13"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="38"/>
@@ -3569,13 +3578,13 @@
       <c r="I54" s="13"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="38">
@@ -3595,7 +3604,7 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="38">
@@ -3614,7 +3623,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="51"/>
@@ -3639,7 +3648,7 @@
         <v>36161</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="51">
         <v>1.25</v>
@@ -3655,7 +3664,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3683,7 +3692,7 @@
         <v>36220</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="51">
         <v>1.25</v>
@@ -3701,13 +3710,13 @@
       <c r="I60" s="13"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="38">
@@ -3726,7 +3735,7 @@
         <v>36251</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="51">
         <v>1.25</v>
@@ -3750,7 +3759,7 @@
         <v>36281</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="51">
         <v>1.25</v>
@@ -3768,13 +3777,13 @@
       <c r="I63" s="13"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="38"/>
@@ -3793,7 +3802,7 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="38">
@@ -3810,7 +3819,7 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="38"/>
@@ -3821,7 +3830,7 @@
       <c r="I66" s="13"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3829,7 +3838,7 @@
         <v>36312</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" s="51">
         <v>1.25</v>
@@ -3853,7 +3862,7 @@
         <v>36342</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" s="51">
         <v>1.25</v>
@@ -3871,13 +3880,13 @@
       <c r="I68" s="13"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="38">
@@ -3899,7 +3908,7 @@
         <v>36373</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" s="51">
         <v>1.25</v>
@@ -3925,7 +3934,7 @@
         <v>36404</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="51">
         <v>1.25</v>
@@ -3943,13 +3952,13 @@
       <c r="I71" s="13"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="38">
@@ -3991,7 +4000,7 @@
         <v>36465</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="51">
         <v>1.25</v>
@@ -4009,7 +4018,7 @@
       <c r="I74" s="13"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4017,7 +4026,7 @@
         <v>36495</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="51">
         <v>1.25</v>
@@ -4038,7 +4047,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="51"/>
@@ -4103,7 +4112,7 @@
         <v>36586</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="51">
         <v>1.25</v>
@@ -4125,7 +4134,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="38"/>
@@ -4139,7 +4148,7 @@
       <c r="I80" s="13"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4167,7 +4176,7 @@
         <v>36647</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="51">
         <v>1.25</v>
@@ -4185,13 +4194,13 @@
       <c r="I82" s="13"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="38">
@@ -4213,7 +4222,7 @@
         <v>36678</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="51">
         <v>1.25</v>
@@ -4275,7 +4284,7 @@
         <v>36770</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="51">
         <v>1.25</v>
@@ -4293,13 +4302,13 @@
       <c r="I87" s="13"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="38">
@@ -4315,7 +4324,7 @@
       <c r="I88" s="13"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4380,7 +4389,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="51"/>
@@ -4505,7 +4514,7 @@
         <v>37043</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="51">
         <v>1.25</v>
@@ -4523,7 +4532,7 @@
       <c r="I98" s="13"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4531,7 +4540,7 @@
         <v>37073</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" s="51">
         <v>1.25</v>
@@ -4549,7 +4558,7 @@
       <c r="I99" s="13"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4597,7 +4606,7 @@
         <v>37165</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102" s="51">
         <v>1.25</v>
@@ -4615,7 +4624,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4623,7 +4632,7 @@
         <v>37196</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="51">
         <v>1.25</v>
@@ -4647,7 +4656,7 @@
         <v>37226</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C104" s="51">
         <v>1.25</v>
@@ -4669,7 +4678,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="38">
@@ -4688,7 +4697,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="51"/>
@@ -4713,7 +4722,7 @@
         <v>37257</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C107" s="51">
         <v>1.25</v>
@@ -4737,7 +4746,7 @@
         <v>37288</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108" s="51">
         <v>1.25</v>
@@ -4761,7 +4770,7 @@
         <v>37316</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C109" s="51">
         <v>1.25</v>
@@ -4785,7 +4794,7 @@
         <v>37347</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="51">
         <v>1.25</v>
@@ -4807,7 +4816,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="38"/>
@@ -4821,7 +4830,7 @@
       <c r="I111" s="13"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4829,7 +4838,7 @@
         <v>37377</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C112" s="51">
         <v>1.25</v>
@@ -4847,7 +4856,7 @@
       <c r="I112" s="13"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4855,7 +4864,7 @@
         <v>37408</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C113" s="51">
         <v>1.25</v>
@@ -4873,7 +4882,7 @@
       <c r="I113" s="13"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4881,7 +4890,7 @@
         <v>37438</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="51">
         <v>1.25</v>
@@ -4899,7 +4908,7 @@
       <c r="I114" s="13"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -4907,7 +4916,7 @@
         <v>37469</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C115" s="51">
         <v>1.25</v>
@@ -4927,7 +4936,7 @@
       <c r="I115" s="13"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5012,7 +5021,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="51"/>
@@ -5077,7 +5086,7 @@
         <v>37681</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" s="51">
         <v>1.25</v>
@@ -5093,7 +5102,7 @@
       <c r="I123" s="13"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5139,7 +5148,7 @@
       <c r="I125" s="13"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5207,7 +5216,7 @@
         <v>37865</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C129" s="51">
         <v>1.25</v>
@@ -5225,7 +5234,7 @@
       <c r="I129" s="13"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5233,7 +5242,7 @@
         <v>37895</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" s="51">
         <v>1.25</v>
@@ -5257,7 +5266,7 @@
         <v>37926</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="51">
         <v>1.25</v>
@@ -5275,13 +5284,13 @@
       <c r="I131" s="13"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="38">
@@ -5303,7 +5312,7 @@
         <v>37956</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="51">
         <v>1.25</v>
@@ -5321,13 +5330,13 @@
       <c r="I133" s="13"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="38">
@@ -5346,7 +5355,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="51"/>
@@ -5371,7 +5380,7 @@
         <v>37987</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" s="51">
         <v>1.25</v>
@@ -5395,7 +5404,7 @@
         <v>38018</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" s="51">
         <v>1.25</v>
@@ -5419,7 +5428,7 @@
         <v>38047</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C138" s="51">
         <v>1.25</v>
@@ -5443,7 +5452,7 @@
         <v>38078</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" s="51">
         <v>1.25</v>
@@ -5465,7 +5474,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="38"/>
@@ -5479,7 +5488,7 @@
       <c r="I140" s="13"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5487,7 +5496,7 @@
         <v>38108</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C141" s="51">
         <v>1.25</v>
@@ -5511,7 +5520,7 @@
         <v>38139</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C142" s="51">
         <v>1.25</v>
@@ -5535,7 +5544,7 @@
         <v>38169</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C143" s="51">
         <v>1.25</v>
@@ -5553,13 +5562,13 @@
       <c r="I143" s="13"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="38"/>
@@ -5581,7 +5590,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="38">
@@ -5597,13 +5606,13 @@
       <c r="I145" s="13"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="38">
@@ -5643,7 +5652,7 @@
       <c r="I147" s="13"/>
       <c r="J147" s="11"/>
       <c r="K147" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5665,7 +5674,7 @@
       <c r="I148" s="13"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5687,7 +5696,7 @@
       <c r="I149" s="13"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -5695,7 +5704,7 @@
         <v>38231</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C150" s="51">
         <v>1.25</v>
@@ -5719,7 +5728,7 @@
         <v>38261</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C151" s="51">
         <v>1.25</v>
@@ -5737,13 +5746,13 @@
       <c r="I151" s="13"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="38"/>
@@ -5759,13 +5768,13 @@
       <c r="I152" s="13"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="38"/>
@@ -5783,7 +5792,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="38">
@@ -5802,7 +5811,7 @@
         <v>38292</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C155" s="51">
         <v>1.25</v>
@@ -5826,7 +5835,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="38"/>
@@ -5848,7 +5857,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="38"/>
@@ -5870,7 +5879,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="38"/>
@@ -5886,13 +5895,13 @@
       <c r="I158" s="13"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="38">
@@ -5914,7 +5923,7 @@
         <v>38322</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C160" s="51">
         <v>1.25</v>
@@ -5932,13 +5941,13 @@
       <c r="I160" s="13"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="38">
@@ -5957,7 +5966,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="51"/>
@@ -5982,7 +5991,7 @@
         <v>38353</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C163" s="51">
         <v>1.25</v>
@@ -6000,13 +6009,13 @@
       <c r="I163" s="13"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="38"/>
@@ -6022,13 +6031,13 @@
       <c r="I164" s="13"/>
       <c r="J164" s="11"/>
       <c r="K164" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="38"/>
@@ -6050,7 +6059,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="38">
@@ -6072,7 +6081,7 @@
         <v>38384</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C167" s="51">
         <v>1.25</v>
@@ -6090,13 +6099,13 @@
       <c r="I167" s="13"/>
       <c r="J167" s="11"/>
       <c r="K167" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="38"/>
@@ -6112,13 +6121,13 @@
       <c r="I168" s="13"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="38"/>
@@ -6132,13 +6141,13 @@
       <c r="I169" s="13"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="38">
@@ -6162,7 +6171,7 @@
         <v>38412</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C171" s="51">
         <v>1.25</v>
@@ -6184,7 +6193,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="38"/>
@@ -6200,7 +6209,7 @@
       <c r="I172" s="13"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6208,7 +6217,7 @@
         <v>38443</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C173" s="51">
         <v>1.25</v>
@@ -6232,7 +6241,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="38">
@@ -6254,7 +6263,7 @@
         <v>38473</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C175" s="51">
         <v>1.25</v>
@@ -6278,7 +6287,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="38"/>
@@ -6292,13 +6301,13 @@
       <c r="I176" s="13"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="38"/>
@@ -6312,13 +6321,13 @@
       <c r="I177" s="13"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="38">
@@ -6340,7 +6349,7 @@
         <v>38504</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C179" s="51">
         <v>1.25</v>
@@ -6358,13 +6367,13 @@
       <c r="I179" s="13"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="38"/>
@@ -6380,13 +6389,13 @@
       <c r="I180" s="13"/>
       <c r="J180" s="11"/>
       <c r="K180" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="38"/>
@@ -6402,13 +6411,13 @@
       <c r="I181" s="13"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="38">
@@ -6430,7 +6439,7 @@
         <v>38534</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="51">
         <v>1.25</v>
@@ -6450,13 +6459,13 @@
       <c r="I183" s="13"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="38">
@@ -6478,7 +6487,7 @@
         <v>38565</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C185" s="51">
         <v>1.25</v>
@@ -6502,7 +6511,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="38">
@@ -6520,7 +6529,7 @@
       <c r="I186" s="13"/>
       <c r="J186" s="11"/>
       <c r="K186" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -6528,7 +6537,7 @@
         <v>38596</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C187" s="51">
         <v>1.25</v>
@@ -6552,7 +6561,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="38"/>
@@ -6574,7 +6583,7 @@
         <v>38626</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C189" s="51">
         <v>1.25</v>
@@ -6594,7 +6603,7 @@
       <c r="I189" s="13"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -6616,13 +6625,13 @@
       <c r="I190" s="13"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="38">
@@ -6638,7 +6647,7 @@
       <c r="I191" s="13"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -6683,7 +6692,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="51"/>
@@ -6708,7 +6717,7 @@
         <v>38718</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C195" s="51">
         <v>1.25</v>
@@ -6726,13 +6735,13 @@
       <c r="I195" s="13"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="38">
@@ -6747,13 +6756,13 @@
       <c r="I196" s="13"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="38">
@@ -6772,7 +6781,7 @@
         <v>38749</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C198" s="51">
         <v>1.25</v>
@@ -6796,7 +6805,7 @@
         <v>38777</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C199" s="51">
         <v>1.25</v>
@@ -6820,7 +6829,7 @@
         <v>38808</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C200" s="51">
         <v>1.25</v>
@@ -6844,7 +6853,7 @@
         <v>38838</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C201" s="51">
         <v>1.25</v>
@@ -6862,13 +6871,13 @@
       <c r="I201" s="13"/>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="38">
@@ -6890,7 +6899,7 @@
         <v>38869</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C203" s="51">
         <v>1.25</v>
@@ -6914,7 +6923,7 @@
         <v>38899</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C204" s="51">
         <v>1.25</v>
@@ -6938,7 +6947,7 @@
         <v>38930</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C205" s="51">
         <v>1.25</v>
@@ -6962,7 +6971,7 @@
         <v>38961</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C206" s="51">
         <v>1.25</v>
@@ -6986,7 +6995,7 @@
         <v>38991</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C207" s="51">
         <v>1.25</v>
@@ -7010,7 +7019,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="38">
@@ -7032,7 +7041,7 @@
         <v>39022</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C209" s="51">
         <v>1.25</v>
@@ -7050,13 +7059,13 @@
       <c r="I209" s="13"/>
       <c r="J209" s="11"/>
       <c r="K209" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="38">
@@ -7078,7 +7087,7 @@
         <v>39052</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C211" s="51">
         <v>1.25</v>
@@ -7099,7 +7108,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="51"/>
@@ -7124,7 +7133,7 @@
         <v>39083</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C213" s="51">
         <v>1.25</v>
@@ -7148,7 +7157,7 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="38">
@@ -7170,7 +7179,7 @@
         <v>39114</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C215" s="51">
         <v>1.25</v>
@@ -7188,13 +7197,13 @@
       <c r="I215" s="13"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="38">
@@ -7216,7 +7225,7 @@
         <v>39142</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C217" s="51">
         <v>1.25</v>
@@ -7240,7 +7249,7 @@
         <v>39173</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C218" s="51">
         <v>1.25</v>
@@ -7264,7 +7273,7 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="38">
@@ -7286,7 +7295,7 @@
         <v>39203</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C220" s="51">
         <v>1.25</v>
@@ -7304,13 +7313,13 @@
       <c r="I220" s="13"/>
       <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="38">
@@ -7332,7 +7341,7 @@
         <v>39234</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C222" s="51">
         <v>1.25</v>
@@ -7376,7 +7385,7 @@
         <v>39295</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C224" s="51">
         <v>1.25</v>
@@ -7398,7 +7407,7 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="38"/>
@@ -7420,7 +7429,7 @@
         <v>39326</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C226" s="51">
         <v>1.25</v>
@@ -7444,7 +7453,7 @@
         <v>39356</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C227" s="51">
         <v>1.25</v>
@@ -7468,7 +7477,7 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="38"/>
@@ -7484,13 +7493,13 @@
       <c r="I228" s="13"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="38">
@@ -7514,7 +7523,7 @@
         <v>39387</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C230" s="51">
         <v>1.25</v>
@@ -7538,7 +7547,7 @@
         <v>39417</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C231" s="51">
         <v>1.25</v>
@@ -7559,7 +7568,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="51"/>
@@ -7584,7 +7593,7 @@
         <v>39448</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C233" s="51">
         <v>1.25</v>
@@ -7604,7 +7613,7 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="38">
@@ -7626,7 +7635,7 @@
         <v>39479</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C235" s="51">
         <v>1.25</v>
@@ -7650,7 +7659,7 @@
         <v>39508</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C236" s="51">
         <v>1.25</v>
@@ -7668,13 +7677,13 @@
       <c r="I236" s="13"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="38"/>
@@ -7694,7 +7703,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="38">
@@ -7716,7 +7725,7 @@
         <v>39539</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C239" s="51">
         <v>1.25</v>
@@ -7736,7 +7745,7 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C240" s="13"/>
       <c r="D240" s="38">
@@ -7758,7 +7767,7 @@
         <v>39569</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C241" s="51">
         <v>1.25</v>
@@ -7782,7 +7791,7 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="38"/>
@@ -7804,7 +7813,7 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C243" s="13"/>
       <c r="D243" s="38"/>
@@ -7820,13 +7829,13 @@
       <c r="I243" s="13"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="38"/>
@@ -7844,7 +7853,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="38">
@@ -7860,7 +7869,7 @@
       <c r="I245" s="13"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -7868,7 +7877,7 @@
         <v>39600</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C246" s="51">
         <v>1.25</v>
@@ -7886,13 +7895,13 @@
       <c r="I246" s="13"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="38"/>
@@ -7910,7 +7919,7 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="38">
@@ -7932,7 +7941,7 @@
         <v>39630</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C249" s="51">
         <v>1.25</v>
@@ -7956,7 +7965,7 @@
         <v>39661</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C250" s="51">
         <v>1.25</v>
@@ -7980,7 +7989,7 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="38"/>
@@ -7998,7 +8007,7 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="38">
@@ -8020,7 +8029,7 @@
         <v>39692</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C253" s="51">
         <v>1.25</v>
@@ -8038,13 +8047,13 @@
       <c r="I253" s="13"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="38"/>
@@ -8062,7 +8071,7 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="38">
@@ -8081,7 +8090,7 @@
         <v>39722</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C256" s="51">
         <v>1.25</v>
@@ -8103,7 +8112,7 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="38"/>
@@ -8120,7 +8129,7 @@
         <v>39753</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C258" s="51">
         <v>1.25</v>
@@ -8142,7 +8151,7 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="38"/>
@@ -8159,7 +8168,7 @@
         <v>39783</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" s="51">
         <v>1.25</v>
@@ -8181,7 +8190,7 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="38"/>
@@ -8195,7 +8204,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="51"/>
@@ -8220,7 +8229,7 @@
         <v>39814</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C263" s="51">
         <v>1.25</v>
@@ -8244,7 +8253,7 @@
         <v>39845</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C264" s="51">
         <v>1.25</v>
@@ -8268,7 +8277,7 @@
         <v>39873</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C265" s="51">
         <v>1.25</v>
@@ -8292,7 +8301,7 @@
         <v>39904</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C266" s="51">
         <v>1.25</v>
@@ -8308,13 +8317,13 @@
       <c r="I266" s="13"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="38"/>
@@ -8327,13 +8336,13 @@
       <c r="I267" s="13"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="38"/>
@@ -8346,13 +8355,13 @@
       <c r="I268" s="13"/>
       <c r="J268" s="11"/>
       <c r="K268" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="38">
@@ -8371,7 +8380,7 @@
         <v>39934</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C270" s="51">
         <v>1.25</v>
@@ -8393,7 +8402,7 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="38">
@@ -8415,7 +8424,7 @@
         <v>39965</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C272" s="51">
         <v>1.25</v>
@@ -8433,13 +8442,13 @@
       <c r="I272" s="13"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="38">
@@ -8461,7 +8470,7 @@
         <v>39995</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C274" s="51">
         <v>1.25</v>
@@ -8485,7 +8494,7 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="38"/>
@@ -8501,13 +8510,13 @@
       <c r="I275" s="13"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="38">
@@ -8529,7 +8538,7 @@
         <v>40026</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C277" s="51">
         <v>1.25</v>
@@ -8553,7 +8562,7 @@
         <v>40057</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C278" s="51">
         <v>1.25</v>
@@ -8571,13 +8580,13 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="38">
@@ -8599,7 +8608,7 @@
         <v>40087</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C280" s="51">
         <v>1.25</v>
@@ -8617,13 +8626,13 @@
       <c r="I280" s="13"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="38">
@@ -8645,7 +8654,7 @@
         <v>40118</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C282" s="51">
         <v>1.25</v>
@@ -8663,13 +8672,13 @@
       <c r="I282" s="13"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="38">
@@ -8685,13 +8694,13 @@
       <c r="I283" s="13"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="38">
@@ -8713,7 +8722,7 @@
         <v>40148</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C285" s="51">
         <v>1.25</v>
@@ -8734,7 +8743,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="51"/>
@@ -8759,7 +8768,7 @@
         <v>40179</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C287" s="51">
         <v>1.25</v>
@@ -8783,7 +8792,7 @@
         <v>40210</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C288" s="51">
         <v>1.25</v>
@@ -8807,7 +8816,7 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="38">
@@ -8829,7 +8838,7 @@
         <v>40238</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C290" s="51">
         <v>1.25</v>
@@ -8853,7 +8862,7 @@
         <v>40269</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C291" s="51">
         <v>1.25</v>
@@ -8877,7 +8886,7 @@
         <v>40299</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C292" s="51">
         <v>1.25</v>
@@ -8899,7 +8908,7 @@
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C293" s="13"/>
       <c r="D293" s="38"/>
@@ -8919,7 +8928,7 @@
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="38"/>
@@ -8941,7 +8950,7 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="38">
@@ -8963,7 +8972,7 @@
         <v>40330</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C296" s="51">
         <v>1.25</v>
@@ -8987,7 +8996,7 @@
         <v>40360</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C297" s="51">
         <v>1.25</v>
@@ -9011,7 +9020,7 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="38"/>
@@ -9027,13 +9036,13 @@
       <c r="I298" s="13"/>
       <c r="J298" s="11"/>
       <c r="K298" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="38">
@@ -9055,7 +9064,7 @@
         <v>40391</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C300" s="51">
         <v>1.25</v>
@@ -9079,7 +9088,7 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="38"/>
@@ -9101,7 +9110,7 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="38">
@@ -9123,7 +9132,7 @@
         <v>40422</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C303" s="51">
         <v>1.25</v>
@@ -9147,7 +9156,7 @@
         <v>40452</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C304" s="51">
         <v>1.25</v>
@@ -9165,13 +9174,13 @@
       <c r="I304" s="13"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="38">
@@ -9193,7 +9202,7 @@
         <v>40483</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C306" s="51">
         <v>1.25</v>
@@ -9217,7 +9226,7 @@
         <v>40513</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C307" s="51">
         <v>1.25</v>
@@ -9241,7 +9250,7 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="38">
@@ -9260,7 +9269,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="51"/>
@@ -9285,7 +9294,7 @@
         <v>40544</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C310" s="51">
         <v>1.25</v>
@@ -9307,7 +9316,7 @@
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="38">
@@ -9329,7 +9338,7 @@
         <v>40575</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C312" s="51">
         <v>1.25</v>
@@ -9347,13 +9356,13 @@
       <c r="I312" s="13"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="38"/>
@@ -9373,7 +9382,7 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="38">
@@ -9395,7 +9404,7 @@
         <v>40603</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C315" s="51">
         <v>1.25</v>
@@ -9417,7 +9426,7 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="38">
@@ -9433,13 +9442,13 @@
       <c r="I316" s="13"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C317" s="13"/>
       <c r="D317" s="38">
@@ -9461,7 +9470,7 @@
         <v>40634</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C318" s="51">
         <v>1.25</v>
@@ -9479,13 +9488,13 @@
       <c r="I318" s="13"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="38">
@@ -9507,7 +9516,7 @@
         <v>40664</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C320" s="51">
         <v>1.25</v>
@@ -9529,7 +9538,7 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="38"/>
@@ -9543,13 +9552,13 @@
       <c r="I321" s="13"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="38">
@@ -9565,13 +9574,13 @@
       <c r="I322" s="13"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="38">
@@ -9593,7 +9602,7 @@
         <v>40695</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C324" s="51">
         <v>1.25</v>
@@ -9617,7 +9626,7 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C325" s="13"/>
       <c r="D325" s="38"/>
@@ -9633,13 +9642,13 @@
       <c r="I325" s="13"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="38"/>
@@ -9655,13 +9664,13 @@
       <c r="I326" s="13"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="38">
@@ -9683,7 +9692,7 @@
         <v>40725</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C328" s="51">
         <v>1.25</v>
@@ -9707,7 +9716,7 @@
         <v>40756</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C329" s="51">
         <v>1.25</v>
@@ -9731,7 +9740,7 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="38">
@@ -9753,7 +9762,7 @@
         <v>40787</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C331" s="51">
         <v>1.25</v>
@@ -9771,13 +9780,13 @@
       <c r="I331" s="13"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C332" s="13"/>
       <c r="D332" s="38"/>
@@ -9799,7 +9808,7 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C333" s="13"/>
       <c r="D333" s="38">
@@ -9821,7 +9830,7 @@
         <v>40817</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C334" s="51">
         <v>1.25</v>
@@ -9839,13 +9848,13 @@
       <c r="I334" s="13"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C335" s="13"/>
       <c r="D335" s="38"/>
@@ -9867,7 +9876,7 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C336" s="13"/>
       <c r="D336" s="38">
@@ -9889,7 +9898,7 @@
         <v>40848</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C337" s="51">
         <v>1.25</v>
@@ -9915,7 +9924,7 @@
         <v>40878</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C338" s="51">
         <v>1.25</v>
@@ -9939,7 +9948,7 @@
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="38"/>
@@ -9958,7 +9967,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="51"/>
@@ -9983,7 +9992,7 @@
         <v>40909</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C341" s="51">
         <v>1.25</v>
@@ -10007,7 +10016,7 @@
         <v>40940</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C342" s="51">
         <v>1.25</v>
@@ -10029,7 +10038,7 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="38">
@@ -10051,7 +10060,7 @@
         <v>40969</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C344" s="51">
         <v>1.25</v>
@@ -10069,13 +10078,13 @@
       <c r="I344" s="13"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="38"/>
@@ -10097,7 +10106,7 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="38"/>
@@ -10133,13 +10142,13 @@
       <c r="I347" s="13"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C348" s="13"/>
       <c r="D348" s="38">
@@ -10161,7 +10170,7 @@
         <v>41000</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C349" s="51">
         <v>1.25</v>
@@ -10185,7 +10194,7 @@
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="38">
@@ -10207,7 +10216,7 @@
         <v>41030</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C351" s="51">
         <v>1.25</v>
@@ -10223,7 +10232,7 @@
       <c r="I351" s="13"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -10231,7 +10240,7 @@
         <v>41061</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C352" s="51">
         <v>1.25</v>
@@ -10255,7 +10264,7 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="38">
@@ -10277,7 +10286,7 @@
         <v>41091</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C354" s="51">
         <v>1.25</v>
@@ -10295,13 +10304,13 @@
       <c r="I354" s="13"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="38">
@@ -10323,7 +10332,7 @@
         <v>41122</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C356" s="51">
         <v>1.25</v>
@@ -10341,7 +10350,7 @@
       <c r="I356" s="13"/>
       <c r="J356" s="11"/>
       <c r="K356" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -10349,7 +10358,7 @@
         <v>41153</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C357" s="51">
         <v>1.25</v>
@@ -10373,7 +10382,7 @@
         <v>41183</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C358" s="51">
         <v>1.25</v>
@@ -10391,7 +10400,7 @@
       <c r="I358" s="13"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -10399,7 +10408,7 @@
         <v>41214</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C359" s="51">
         <v>1.25</v>
@@ -10439,7 +10448,7 @@
         <v>41244</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="51">
         <v>1.25</v>
@@ -10476,7 +10485,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="51"/>
@@ -10501,7 +10510,7 @@
         <v>41275</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C364" s="51">
         <v>1.25</v>
@@ -10525,7 +10534,7 @@
         <v>41306</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="51">
         <v>1.25</v>
@@ -10549,7 +10558,7 @@
         <v>41334</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C366" s="51">
         <v>1.25</v>
@@ -10573,7 +10582,7 @@
         <v>41365</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C367" s="51">
         <v>1.25</v>
@@ -10591,13 +10600,13 @@
       <c r="I367" s="13"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C368" s="13"/>
       <c r="D368" s="38"/>
@@ -10613,13 +10622,13 @@
       <c r="I368" s="13"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="38">
@@ -10641,7 +10650,7 @@
         <v>41395</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C370" s="51">
         <v>1.25</v>
@@ -10659,13 +10668,13 @@
       <c r="I370" s="13"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="38"/>
@@ -10682,7 +10691,7 @@
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C372" s="13"/>
       <c r="D372" s="38">
@@ -10704,7 +10713,7 @@
         <v>41426</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C373" s="51">
         <v>1.25</v>
@@ -10726,7 +10735,7 @@
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C374" s="13"/>
       <c r="D374" s="38"/>
@@ -10742,7 +10751,7 @@
       <c r="I374" s="13"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -10750,7 +10759,7 @@
         <v>41456</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C375" s="51">
         <v>1.25</v>
@@ -10772,7 +10781,7 @@
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="38"/>
@@ -10796,7 +10805,7 @@
         <v>41487</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C377" s="51">
         <v>1.25</v>
@@ -10822,7 +10831,7 @@
         <v>41518</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C378" s="51">
         <v>1.25</v>
@@ -10844,7 +10853,7 @@
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C379" s="13"/>
       <c r="D379" s="38"/>
@@ -10860,7 +10869,7 @@
       <c r="I379" s="13"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -10868,7 +10877,7 @@
         <v>41548</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C380" s="51">
         <v>1.25</v>
@@ -10890,7 +10899,7 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C381" s="13"/>
       <c r="D381" s="38"/>
@@ -10906,7 +10915,7 @@
       <c r="I381" s="13"/>
       <c r="J381" s="11"/>
       <c r="K381" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -10914,7 +10923,7 @@
         <v>41579</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C382" s="51">
         <v>1.25</v>
@@ -10938,7 +10947,7 @@
         <v>41609</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C383" s="51">
         <v>1.25</v>
@@ -10954,13 +10963,13 @@
       <c r="I383" s="13"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="38">
@@ -10976,12 +10985,12 @@
       <c r="I384" s="13"/>
       <c r="J384" s="11"/>
       <c r="K384" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="51"/>
@@ -11006,7 +11015,7 @@
         <v>41640</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C386" s="51">
         <v>1.25</v>
@@ -11030,7 +11039,7 @@
         <v>41671</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C387" s="51">
         <v>1.25</v>
@@ -11054,7 +11063,7 @@
         <v>41699</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C388" s="51">
         <v>1.25</v>
@@ -11070,13 +11079,13 @@
       <c r="I388" s="13"/>
       <c r="J388" s="11"/>
       <c r="K388" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="38">
@@ -11098,7 +11107,7 @@
         <v>41730</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C390" s="51">
         <v>1.25</v>
@@ -11116,13 +11125,13 @@
       <c r="I390" s="13"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="38">
@@ -11144,7 +11153,7 @@
         <v>41760</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C392" s="51">
         <v>1.25</v>
@@ -11168,7 +11177,7 @@
         <v>41791</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C393" s="51">
         <v>1.25</v>
@@ -11186,7 +11195,7 @@
       <c r="I393" s="13"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -11234,7 +11243,7 @@
         <v>41883</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C396" s="51">
         <v>1.25</v>
@@ -11252,7 +11261,7 @@
       <c r="I396" s="13"/>
       <c r="J396" s="11"/>
       <c r="K396" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -11278,13 +11287,13 @@
       <c r="I397" s="13"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="38"/>
@@ -11304,7 +11313,7 @@
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C399" s="13"/>
       <c r="D399" s="38">
@@ -11323,7 +11332,7 @@
         <v>41944</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C400" s="51">
         <v>1.25</v>
@@ -11347,7 +11356,7 @@
         <v>41974</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C401" s="51">
         <v>1.25</v>
@@ -11369,7 +11378,7 @@
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C402" s="13"/>
       <c r="D402" s="38"/>
@@ -11388,7 +11397,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="51"/>
@@ -11413,7 +11422,7 @@
         <v>42005</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C404" s="51">
         <v>1.25</v>
@@ -11437,7 +11446,7 @@
         <v>42036</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C405" s="51">
         <v>1.25</v>
@@ -11461,7 +11470,7 @@
         <v>42064</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C406" s="51">
         <v>1.25</v>
@@ -11485,7 +11494,7 @@
         <v>42095</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C407" s="51">
         <v>1.25</v>
@@ -11509,7 +11518,7 @@
         <v>42125</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C408" s="51">
         <v>1.25</v>
@@ -11531,7 +11540,7 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="38">
@@ -11547,13 +11556,13 @@
       <c r="I409" s="13"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="38">
@@ -11575,7 +11584,7 @@
         <v>42156</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C411" s="51">
         <v>1.25</v>
@@ -11599,7 +11608,7 @@
         <v>42186</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C412" s="51">
         <v>1.25</v>
@@ -11621,7 +11630,7 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C413" s="13"/>
       <c r="D413" s="38"/>
@@ -11643,7 +11652,7 @@
         <v>42217</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C414" s="51">
         <v>1.25</v>
@@ -11667,7 +11676,7 @@
         <v>42248</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C415" s="51">
         <v>1.25</v>
@@ -11691,7 +11700,7 @@
         <v>42278</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C416" s="51">
         <v>1.25</v>
@@ -11709,13 +11718,13 @@
       <c r="I416" s="13"/>
       <c r="J416" s="11"/>
       <c r="K416" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="38">
@@ -11737,7 +11746,7 @@
         <v>42309</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C418" s="51">
         <v>1.25</v>
@@ -11761,7 +11770,7 @@
         <v>42339</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C419" s="51">
         <v>1.25</v>
@@ -11779,13 +11788,13 @@
       <c r="I419" s="13"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="38">
@@ -11804,7 +11813,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="51"/>
@@ -11829,7 +11838,7 @@
         <v>42370</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C422" s="51">
         <v>1.25</v>
@@ -11853,7 +11862,7 @@
         <v>42401</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C423" s="51">
         <v>1.25</v>
@@ -11877,7 +11886,7 @@
         <v>42430</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C424" s="51">
         <v>1.25</v>
@@ -11901,7 +11910,7 @@
         <v>42461</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C425" s="51">
         <v>1.25</v>
@@ -11925,7 +11934,7 @@
         <v>42491</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C426" s="51">
         <v>1.25</v>
@@ -11943,13 +11952,13 @@
       <c r="I426" s="13"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C427" s="13"/>
       <c r="D427" s="38"/>
@@ -11969,7 +11978,7 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="38">
@@ -11991,7 +12000,7 @@
         <v>42522</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C429" s="51">
         <v>1.25</v>
@@ -12009,13 +12018,13 @@
       <c r="I429" s="13"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="38">
@@ -12037,7 +12046,7 @@
         <v>42552</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C431" s="51">
         <v>1.25</v>
@@ -12061,7 +12070,7 @@
         <v>42583</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C432" s="51">
         <v>1.25</v>
@@ -12085,7 +12094,7 @@
         <v>42614</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C433" s="51">
         <v>1.25</v>
@@ -12103,13 +12112,13 @@
       <c r="I433" s="13"/>
       <c r="J433" s="11"/>
       <c r="K433" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C434" s="13"/>
       <c r="D434" s="38">
@@ -12131,7 +12140,7 @@
         <v>42644</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C435" s="51">
         <v>1.25</v>
@@ -12149,13 +12158,13 @@
       <c r="I435" s="13"/>
       <c r="J435" s="11"/>
       <c r="K435" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C436" s="13"/>
       <c r="D436" s="38">
@@ -12177,7 +12186,7 @@
         <v>42675</v>
       </c>
       <c r="B437" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C437" s="51">
         <v>1.25</v>
@@ -12195,13 +12204,13 @@
       <c r="I437" s="13"/>
       <c r="J437" s="11"/>
       <c r="K437" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C438" s="13"/>
       <c r="D438" s="38">
@@ -12223,7 +12232,7 @@
         <v>42705</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C439" s="51">
         <v>1.25</v>
@@ -12244,7 +12253,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="51"/>
@@ -12269,7 +12278,7 @@
         <v>42736</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C441" s="51">
         <v>1.25</v>
@@ -12291,7 +12300,7 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C442" s="13"/>
       <c r="D442" s="38"/>
@@ -12313,7 +12322,7 @@
         <v>42767</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C443" s="51">
         <v>1.25</v>
@@ -12335,7 +12344,7 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C444" s="13"/>
       <c r="D444" s="38"/>
@@ -12357,7 +12366,7 @@
         <v>42795</v>
       </c>
       <c r="B445" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C445" s="51">
         <v>1.25</v>
@@ -12381,7 +12390,7 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C446" s="13"/>
       <c r="D446" s="38"/>
@@ -12395,13 +12404,13 @@
       <c r="I446" s="13"/>
       <c r="J446" s="11"/>
       <c r="K446" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C447" s="13"/>
       <c r="D447" s="38"/>
@@ -12417,13 +12426,13 @@
       <c r="I447" s="13"/>
       <c r="J447" s="11"/>
       <c r="K447" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C448" s="13"/>
       <c r="D448" s="38"/>
@@ -12439,7 +12448,7 @@
       <c r="I448" s="13"/>
       <c r="J448" s="11"/>
       <c r="K448" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -12467,7 +12476,7 @@
         <v>42826</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C450" s="51">
         <v>1.25</v>
@@ -12491,7 +12500,7 @@
         <v>42856</v>
       </c>
       <c r="B451" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C451" s="51">
         <v>1.25</v>
@@ -12509,13 +12518,13 @@
       <c r="I451" s="13"/>
       <c r="J451" s="11"/>
       <c r="K451" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C452" s="13"/>
       <c r="D452" s="38">
@@ -12537,7 +12546,7 @@
         <v>42887</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C453" s="51">
         <v>1.25</v>
@@ -12561,7 +12570,7 @@
         <v>42917</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C454" s="51">
         <v>1.25</v>
@@ -12585,7 +12594,7 @@
         <v>42948</v>
       </c>
       <c r="B455" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C455" s="51">
         <v>1.25</v>
@@ -12609,7 +12618,7 @@
         <v>42979</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C456" s="51">
         <v>1.25</v>
@@ -12627,7 +12636,7 @@
       <c r="I456" s="13"/>
       <c r="J456" s="11"/>
       <c r="K456" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -12635,7 +12644,7 @@
         <v>43009</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C457" s="51">
         <v>1.25</v>
@@ -12653,7 +12662,7 @@
       <c r="I457" s="13"/>
       <c r="J457" s="11"/>
       <c r="K457" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -12681,7 +12690,7 @@
         <v>43070</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C459" s="51">
         <v>1.25</v>
@@ -12699,7 +12708,7 @@
       <c r="I459" s="13"/>
       <c r="J459" s="11"/>
       <c r="K459" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
@@ -12749,7 +12758,7 @@
         <v>43132</v>
       </c>
       <c r="B462" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C462" s="13">
         <v>1.25</v>
@@ -12775,7 +12784,7 @@
         <v>43160</v>
       </c>
       <c r="B463" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C463" s="13">
         <v>1.25</v>
@@ -12799,7 +12808,7 @@
         <v>43191</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C464" s="13">
         <v>1.25</v>
@@ -12823,7 +12832,7 @@
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39"/>
       <c r="B465" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C465" s="13">
         <v>1.25</v>
@@ -12847,7 +12856,7 @@
         <v>43221</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C466" s="41">
         <v>1.25</v>
@@ -12871,7 +12880,7 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39"/>
       <c r="B467" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="38">
@@ -12915,7 +12924,7 @@
         <v>43282</v>
       </c>
       <c r="B469" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C469" s="13">
         <v>1.25</v>
@@ -12941,7 +12950,7 @@
         <v>43313</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C470" s="13">
         <v>1.25</v>
@@ -12965,7 +12974,7 @@
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C471" s="13">
         <v>1.25</v>
@@ -13011,7 +13020,7 @@
         <v>43374</v>
       </c>
       <c r="B473" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="38"/>
@@ -13033,7 +13042,7 @@
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39"/>
       <c r="B474" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C474" s="13">
         <v>1.25</v>
@@ -13197,7 +13206,7 @@
         <v>43586</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -13223,7 +13232,7 @@
         <v>43617</v>
       </c>
       <c r="B483" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C483" s="13">
         <v>1.25</v>
@@ -13249,7 +13258,7 @@
         <v>43647</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -13273,7 +13282,7 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39"/>
       <c r="B485" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="38"/>
@@ -13337,7 +13346,7 @@
         <v>43739</v>
       </c>
       <c r="B488" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C488" s="13">
         <v>1.25</v>
@@ -13361,7 +13370,7 @@
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39"/>
       <c r="B489" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C489" s="13"/>
       <c r="D489" s="38"/>
@@ -13381,7 +13390,7 @@
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39"/>
       <c r="B490" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C490" s="13">
         <v>1.25</v>
@@ -13465,7 +13474,7 @@
         <v>43831</v>
       </c>
       <c r="B494" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C494" s="13">
         <v>1.25</v>
@@ -13589,7 +13598,7 @@
         <v>44013</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C500" s="13">
         <v>1.25</v>
@@ -13633,7 +13642,7 @@
         <v>44075</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C502" s="13">
         <v>1.25</v>
@@ -13699,7 +13708,7 @@
         <v>44166</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C505" s="13">
         <v>1.25</v>
@@ -13903,7 +13912,7 @@
         <v>44440</v>
       </c>
       <c r="B515" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C515" s="13">
         <v>1.25</v>
@@ -13967,7 +13976,7 @@
         <v>44531</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -14051,7 +14060,7 @@
         <v>44621</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C522" s="13">
         <v>1.25</v>
@@ -14075,7 +14084,7 @@
         <v>44652</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C523" s="13">
         <v>1.25</v>
@@ -14099,7 +14108,7 @@
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39"/>
       <c r="B524" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C524" s="13"/>
       <c r="D524" s="38">
@@ -14121,7 +14130,7 @@
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39"/>
       <c r="B525" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C525" s="13"/>
       <c r="D525" s="38">
@@ -14143,7 +14152,7 @@
         <v>44682</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C526" s="13">
         <v>1.25</v>
@@ -14163,7 +14172,7 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="38">
@@ -14179,13 +14188,13 @@
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
       <c r="K527" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="39"/>
       <c r="B528" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C528" s="13"/>
       <c r="D528" s="38">
@@ -14207,7 +14216,7 @@
         <v>44713</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C529" s="13">
         <v>1.25</v>
@@ -14231,7 +14240,7 @@
         <v>44743</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
@@ -14249,13 +14258,13 @@
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="39"/>
       <c r="B531" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C531" s="13"/>
       <c r="D531" s="38">
@@ -14277,7 +14286,7 @@
         <v>44774</v>
       </c>
       <c r="B532" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C532" s="13">
         <v>1.25</v>
@@ -14303,7 +14312,7 @@
         <v>44805</v>
       </c>
       <c r="B533" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C533" s="13">
         <v>1.25</v>
@@ -14327,7 +14336,7 @@
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39"/>
       <c r="B534" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C534" s="13"/>
       <c r="D534" s="38">
@@ -14349,7 +14358,7 @@
         <v>44835</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C535" s="13">
         <v>1.25</v>
@@ -14373,7 +14382,7 @@
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39"/>
       <c r="B536" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C536" s="13"/>
       <c r="D536" s="38"/>
@@ -14395,7 +14404,7 @@
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39"/>
       <c r="B537" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="38">
@@ -14417,7 +14426,7 @@
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39"/>
       <c r="B538" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C538" s="13"/>
       <c r="D538" s="38">
@@ -14439,7 +14448,7 @@
         <v>44866</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C539" s="13">
         <v>1.25</v>
@@ -14463,7 +14472,7 @@
         <v>44896</v>
       </c>
       <c r="B540" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C540" s="13">
         <v>1.25</v>
@@ -14487,7 +14496,7 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39"/>
       <c r="B541" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C541" s="13"/>
       <c r="D541" s="38">
@@ -14509,7 +14518,7 @@
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39"/>
       <c r="B542" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="38">
@@ -14548,11 +14557,15 @@
       <c r="A544" s="39">
         <v>44927</v>
       </c>
-      <c r="B544" s="20"/>
+      <c r="B544" s="20" t="s">
+        <v>442</v>
+      </c>
       <c r="C544" s="13">
         <v>1.25</v>
       </c>
-      <c r="D544" s="38"/>
+      <c r="D544" s="38">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="13">
@@ -14613,85 +14626,81 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="39">
-        <v>44986</v>
-      </c>
-      <c r="B547" s="20"/>
-      <c r="C547" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D547" s="38"/>
+      <c r="A547" s="39"/>
+      <c r="B547" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C547" s="13"/>
+      <c r="D547" s="38">
+        <v>1</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G547" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H547" s="38"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="48">
+        <v>44980</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="39">
-        <v>45017</v>
-      </c>
+      <c r="A548" s="39"/>
       <c r="B548" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C548" s="13">
-        <v>1.25</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C548" s="13"/>
       <c r="D548" s="38">
-        <v>5</v>
+        <v>2.700000000000001E-2</v>
       </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G548" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H548" s="38"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="K548" s="48"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B549" s="20" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C549" s="13">
         <v>1.25</v>
       </c>
-      <c r="D549" s="38"/>
+      <c r="D549" s="38">
+        <v>2</v>
+      </c>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
       <c r="G549" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H549" s="38">
-        <v>9</v>
-      </c>
+      <c r="H549" s="38"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
       <c r="K549" s="20" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39"/>
       <c r="B550" s="20" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="C550" s="13"/>
       <c r="D550" s="38">
-        <v>8</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
@@ -14702,19 +14711,21 @@
       <c r="H550" s="38"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20" t="s">
-        <v>421</v>
-      </c>
+      <c r="K550" s="20"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B551" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C551" s="13">
         <v>1.25</v>
       </c>
-      <c r="D551" s="38"/>
+      <c r="D551" s="38">
+        <v>5</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
       <c r="G551" s="13">
@@ -14724,66 +14735,66 @@
       <c r="H551" s="38"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="20" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B552" s="20" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="C552" s="13">
         <v>1.25</v>
       </c>
-      <c r="D552" s="38">
-        <v>5.6000000000000015E-2</v>
-      </c>
+      <c r="D552" s="38"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
       <c r="G552" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H552" s="38"/>
+      <c r="H552" s="38">
+        <v>8</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="20" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A553" s="39"/>
       <c r="B553" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C553" s="13">
-        <v>1.25</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C553" s="13"/>
       <c r="D553" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G553" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H553" s="38"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
       <c r="K553" s="20" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39"/>
       <c r="B554" s="20" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C554" s="13"/>
       <c r="D554" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
@@ -14794,24 +14805,28 @@
       <c r="H554" s="38"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20" t="s">
+      <c r="K554" s="48">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="39">
+        <v>45078</v>
+      </c>
+      <c r="B555" s="20" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="39"/>
-      <c r="B555" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="C555" s="13"/>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D555" s="38">
-        <v>4.8000000000000008E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G555" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H555" s="38"/>
       <c r="I555" s="9"/>
@@ -14820,16 +14835,16 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B556" s="20" t="s">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="C556" s="13">
         <v>1.25</v>
       </c>
       <c r="D556" s="38">
-        <v>1</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
@@ -14840,207 +14855,227 @@
       <c r="H556" s="38"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="48">
-        <v>45182</v>
-      </c>
+      <c r="K556" s="20"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="39"/>
+      <c r="A557" s="39">
+        <v>45139</v>
+      </c>
       <c r="B557" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C557" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="C557" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D557" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G557" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H557" s="38"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="48"/>
+      <c r="K557" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="39">
-        <v>45200</v>
-      </c>
+      <c r="A558" s="39"/>
       <c r="B558" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C558" s="13">
-        <v>1.25</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C558" s="13"/>
       <c r="D558" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H558" s="38"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A559" s="39"/>
       <c r="B559" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C559" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D559" s="38"/>
+        <v>437</v>
+      </c>
+      <c r="C559" s="13"/>
+      <c r="D559" s="38">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H559" s="38"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20" t="s">
-        <v>432</v>
-      </c>
+      <c r="K559" s="20"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="39"/>
+      <c r="A560" s="39">
+        <v>45170</v>
+      </c>
       <c r="B560" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C560" s="13"/>
+        <v>420</v>
+      </c>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="38">
-        <v>0.52300000000000002</v>
+        <v>1</v>
       </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="38"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="48">
+        <v>45182</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="39">
-        <v>45261</v>
-      </c>
+      <c r="A561" s="39"/>
       <c r="B561" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="38">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="38"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20" t="s">
-        <v>435</v>
-      </c>
+      <c r="K561" s="48"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="39"/>
+      <c r="A562" s="39">
+        <v>45200</v>
+      </c>
       <c r="B562" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C562" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="38">
-        <v>6.0000000000000001E-3</v>
+        <v>4</v>
       </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H562" s="38"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="20" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="A563" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="38"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="38"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="20" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B564" s="15"/>
-      <c r="C564" s="41"/>
-      <c r="D564" s="42"/>
+      <c r="A564" s="39"/>
+      <c r="B564" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C564" s="13"/>
+      <c r="D564" s="38">
+        <v>0.52300000000000002</v>
+      </c>
       <c r="E564" s="9"/>
-      <c r="F564" s="15"/>
-      <c r="G564" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H564" s="42"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="38"/>
       <c r="I564" s="9"/>
-      <c r="J564" s="12"/>
-      <c r="K564" s="15"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
-      <c r="D565" s="38"/>
+        <v>45261</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D565" s="38">
+        <v>3</v>
+      </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="38"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="20" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B566" s="20"/>
+      <c r="A566" s="39"/>
+      <c r="B566" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C566" s="13"/>
-      <c r="D566" s="38"/>
+      <c r="D566" s="38">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13" t="str">
@@ -15053,8 +15088,8 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="39">
-        <v>45383</v>
+      <c r="A567" s="47" t="s">
+        <v>431</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15072,25 +15107,25 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
-      <c r="D568" s="38"/>
+        <v>45292</v>
+      </c>
+      <c r="B568" s="15"/>
+      <c r="C568" s="41"/>
+      <c r="D568" s="42"/>
       <c r="E568" s="9"/>
-      <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="38"/>
+      <c r="F568" s="15"/>
+      <c r="G568" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="42"/>
       <c r="I568" s="9"/>
-      <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="J568" s="12"/>
+      <c r="K568" s="15"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15108,7 +15143,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15125,52 +15160,72 @@
       <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="39"/>
+      <c r="A571" s="39">
+        <v>45383</v>
+      </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
       <c r="D571" s="38"/>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H571" s="38"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="39"/>
+      <c r="A572" s="39">
+        <v>45413</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="38"/>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H572" s="38"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="39"/>
+      <c r="A573" s="39">
+        <v>45444</v>
+      </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="38"/>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H573" s="38"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="39"/>
+      <c r="A574" s="39">
+        <v>45474</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="38"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H574" s="38"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
@@ -16007,6 +16062,58 @@
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="39"/>
+      <c r="B639" s="20"/>
+      <c r="C639" s="13"/>
+      <c r="D639" s="38"/>
+      <c r="E639" s="9"/>
+      <c r="F639" s="20"/>
+      <c r="G639" s="13"/>
+      <c r="H639" s="38"/>
+      <c r="I639" s="9"/>
+      <c r="J639" s="11"/>
+      <c r="K639" s="20"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="39"/>
+      <c r="B640" s="20"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="38"/>
+      <c r="E640" s="9"/>
+      <c r="F640" s="20"/>
+      <c r="G640" s="13"/>
+      <c r="H640" s="38"/>
+      <c r="I640" s="9"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="20"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" s="39"/>
+      <c r="B641" s="20"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="38"/>
+      <c r="E641" s="9"/>
+      <c r="F641" s="20"/>
+      <c r="G641" s="13"/>
+      <c r="H641" s="38"/>
+      <c r="I641" s="9"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="20"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="39"/>
+      <c r="B642" s="20"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="38"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="20"/>
+      <c r="G642" s="13"/>
+      <c r="H642" s="38"/>
+      <c r="I642" s="9"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16120,11 +16227,11 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.6000000000000015E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">
